--- a/德州AI用例/具体测试用例.xlsx
+++ b/德州AI用例/具体测试用例.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiko/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="位置用例" sheetId="2" r:id="rId2"/>
+    <sheet name="操作时间用例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>前置条件：手牌+翻牌前-&gt;玩家无有效操作-&gt;本轮第一次操作</t>
     <rPh sb="0" eb="1">
@@ -206,14 +203,237 @@
     <rPh sb="2" eb="3">
       <t>sui'ji</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出玩家对应位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九人桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D、E、F、G、H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D、E、F、G、H、I</t>
+  </si>
+  <si>
+    <t>A、B、C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D、E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D、E、F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C、D、E、F、G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB / UTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB / UTG / UTG+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB / UTG / UTG+1 / UTG+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">依次为D / SB / BB / UTG / UTG+1 / UTG+2 / MP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">依次为D / SB / BB / UTG / UTG+1 / UTG+2 / MP / HJ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB / UTG / UTG+1 / UTG+2 / MP / HJ / CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六人桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次为D / SB / BB / UTG / HJ / CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依次为D / BB /</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">依次为D / SB / BB </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">依次为D / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SB / BB / UTG </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">依次为D / SB / BB / UTG / HJ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500ms30%（或100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500-3000ms50%（或100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-4000ms20%（或100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000-4500ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4600-7000ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500-900ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500-2500ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000ms-6000ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000ms-9000ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、ai用户参与牌局带入坐下于BB位或straiddle位后需进行补齐BB/straiddle的操作</t>
+  </si>
+  <si>
+    <t>于前置条件中随机aii的操作时间，随机到所操作时间不能超出最大值和少于最小值就进行操作</t>
+  </si>
+  <si>
+    <t>2、ai用户此手的cp=0（无需支付继续游戏筹码）并且随机到caill/check操作</t>
+  </si>
+  <si>
+    <t>3、ai用户随机操作到fold</t>
+  </si>
+  <si>
+    <t>1、ai用户前面玩家进行了&gt;=35bb的操作值</t>
+  </si>
+  <si>
+    <t>2、ai用户需进行行动的行动值&gt;=35bb</t>
+  </si>
+  <si>
+    <t>3、ai用户参与牌局的pot&gt;=35bb</t>
+  </si>
+  <si>
+    <t>ai用户d的cp和pot值&lt;=35bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于前置条件中随机aii的操作时间，随机到所操作时间不能超出最大值和少于最小值就进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非以上情况：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raiise、bet、aillin操作和cp！=0且未随机到caill/check操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +448,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,8 +491,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -309,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -344,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -521,27 +772,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="187" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -557,16 +808,281 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="54.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="93.875" customWidth="1"/>
+    <col min="3" max="3" width="82.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/德州AI用例/具体测试用例.xlsx
+++ b/德州AI用例/具体测试用例.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiko/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId1"/>
     <sheet name="位置用例" sheetId="2" r:id="rId2"/>
     <sheet name="操作时间用例" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>前置条件：手牌+翻牌前-&gt;玩家无有效操作-&gt;本轮第一次操作</t>
     <rPh sb="0" eb="1">
@@ -76,122 +82,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>sui'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、牌局为1/2 a、b、c、三个玩家，当betrate&lt;20%时，AI玩家首次操作，最小跟注额&lt;当前玩家总底池x50%且最小跟注额&lt;40，</t>
-    <rPh sb="2" eb="3">
-      <t>pai'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>san'ge</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>shou'ci</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>cao'zuo</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>di'chi</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>gen'zhu'e</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、牌局为1/2 a、b、c、三个玩家，当betrate&lt;20%时，AI玩家首次操作，最小跟注额&gt;当前玩家总底池x50%且最小跟注额&gt;40，自身筹码量20&lt;40</t>
-    <rPh sb="2" eb="3">
-      <t>pai'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>san'ge</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>shou'ci</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>cao'zuo</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>wan'jia</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>di'chi</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>qie</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>zui'xiao</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>gen'zhu'e</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zi'shen</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>chou'ma'laing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,12 +318,1497 @@
     <t>raiise、bet、aillin操作和cp！=0且未随机到caill/check操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=3则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（110）&gt;当前玩家总底池（210）x50%且最小跟注额(110)&gt;40，limp-call位参赛人数4人，属于MP位 a玩家进行了call最小跟注额130%，b玩家进行call了最小跟注额130%，call&gt;1 c玩家（AI玩家）自身筹码量90&gt;20bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。A玩家allin，B玩家allin</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>le</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>le</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（110）&gt;当前玩家总底池（210）x50%且最小跟注额(110)&gt;20bb，limp-call位参赛人数4人，属于MP位 a玩家进行了call最小跟注额130%，b玩家进行call了最小跟注额130%，call&gt;1 c玩家（AI玩家）自身筹码量90&lt;50bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。A玩家allin，B玩家allin</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>le</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>le</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin =&gt; 1 call =&gt; 1、allin筹码量&gt;需要跟注筹码130%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（65）&gt;当前玩家总底池（120）x50%且最小跟注额(65)&gt;20bb，limp-call位参赛人数4人，属于MP位 a玩家弃牌，b玩家进行call了最小跟注额130%，c玩家（AI玩家）自身筹码90&gt;20bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。B玩家allin</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>qi'pai</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>le</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（65）&gt;当前玩家总底池（120）x50%且最小跟注额(65)&gt;20bb，limp-call位参赛人数4人，属于MP位 a玩家弃牌，b玩家进行call了最小跟注额130%，c玩家（AI玩家）自身筹码量90&lt;50bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。B玩家allin</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>qi'pai</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>le</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin = 1 call = 1   allin筹码量&gt;需要跟注筹码130%</t>
+    <rPh sb="26" eb="27">
+      <t>chaou'm</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>laing</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chou'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、牌局为1/2 a（AI玩家位置）、b、c、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（50）&gt;当前玩家总底池（80）x50%且最小跟注额（50）&gt;20bb limp-call位参赛人数4人，属于MP位  AI玩家进行操作 allin人数=0则call人数=0，自身筹码量90&gt;20bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。B玩家raise50筹码</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>awn'jia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>can'sai</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>shu'yu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=0则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、牌局为1/2 a（AI玩家位置）、b、c、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（50）&gt;当前玩家总底池（80）x50%且最小跟注额（50）&gt;20bb limp-call位参赛人数4人，属于MP位  AI玩家进行操作 allin人数=0则call人数=0，自身筹码量90&lt;50bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。B玩家raise50筹码</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>awn'jia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>can'sai</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>shu'yu</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、牌局为1/2 a、b、c、三个玩家，当betrate（40%）&lt;50%时，最小跟注额（50）&gt;当前玩家总底池80）x50%且最小跟注额（50）&gt;20bb 0B动作 参赛人数3人 属于EP位 自身筹码量90&gt;40bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。B玩家raise50筹码</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>weo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hsi</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>can'sai</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>shu'y</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ben'ci</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>jie'zhi</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>bem'ci</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>chou'ma</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>weoi</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>chou'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、牌局为1/2 a（AI玩家位置）、b、c、三个玩家，当betrate（40%）&lt;50%时，最小跟注额（50）&gt;当前玩家总底池80）x50%且最小跟注额（50）&gt;20bb 0B 参赛人数3人 属于EP位 自身筹码90&lt; 50bb
+本次AI玩家截止到本次操作前累计筹码为10，符合betrate&lt;40%。B玩家raise50筹码，</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>weo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan'ja</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>hsi</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>can'sai</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>shu'y</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>chou'ma</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ben'ci</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>jie'zhi</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ben'ci</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>cao'zuo'qian</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>chou'ma</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>chou'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、牌局为1/2 a（AI玩家位置）、b、c、三个玩家，当betrate（40%）&lt;50%时，最小跟注额（20）&lt;当前玩家总底池60）x50%且最小跟注额（20）&lt;20bb
+本次ai玩家当前累计下注筹码为20，符合betrate&lt;40%</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>weo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>hsi</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ben'ci</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>xia'z</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>chou'ma</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>fu'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行随机call、raise</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sui'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、牌局为1/2 a、b、c、三个玩家，当betrate（60%）&gt;50%时，</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>weo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hsi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本轮非第一次行动(同一手第二次操作)</t>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=6则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，a玩家进行了call最小跟注额130%，b玩家进行call了最小跟注额130%，call&gt;1 c玩家（AI玩家）自身筹码量100&gt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>le</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>le</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=5则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，a玩家进行了call最小跟注额130%，b玩家进行call了最小跟注额130%，call&gt;1 c玩家（AI玩家）自身筹码量20&lt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>le</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>le</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin =&gt; 1 call =&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=4则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，a玩家弃牌，b玩家进行call了最小跟注额130%，c玩家（AI玩家）自身筹码量100&gt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>qi'pai</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>le</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，a玩家弃牌，b玩家进行call了最小跟注额130%，c玩家（AI玩家）自身筹码量20&lt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>qi'pai</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>le</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>wan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allin = 1 call = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=2则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、牌局为1/2 a（AI玩家位置）、b、c、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20 AI玩家进行操作 allin人数=0则call人数=0，自身筹码量100&gt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>awn'jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机到call进行判断，非对子情况if（30/3）&gt;=20%则call 手牌为对子if（30/3）&gt;20%则call 不满足 以上条件  最小跟注额=0则check   最小跟注额！=1则fold</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dfao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing'kaung</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'pai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>we</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui'zi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>bu'man'zu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yi'shang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>gen'zhu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>e</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、牌局为1/2 a（AI玩家位置）、b、c、d、四个玩家，当betrate（0）&lt;20%时，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20 AI玩家进行操作 allin人数=0则call人数=0，自身筹码量20&lt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>awn'jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ren'shu</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、牌局为1/2 a（AI位置为D位）、b、c、三个玩家，当betrate（0）&lt;20%时，AI玩家首次操作，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，自身筹码量100&gt;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、牌局为1/2 a（AI位置为D位）、b、c、三个玩家，当betrate（0）&lt;20%时，AI玩家首次操作，最小跟注额（30）&gt;当前玩家总底池（3）x50%且最小跟注额&gt;20，自身筹码量20&lt;40</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>weii</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>weo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>di'chi</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>chou'ma'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、牌局为1/2 a（AI位置为D位）、b、c、三个玩家，当betrate（0）&lt;20%时，AI玩家首次操作，最小跟注额（20）&lt;当前玩家总底池（3）x50%且最小跟注额（20）&lt;40，</t>
+    <rPh sb="2" eb="3">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>di'chi</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,6 +1877,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,189 +2150,405 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="187" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="184.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -964,115 +2558,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="93.875" customWidth="1"/>
-    <col min="3" max="3" width="82.875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.83203125" customWidth="1"/>
+    <col min="3" max="3" width="82.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -1085,4 +2679,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/德州AI用例/具体测试用例.xlsx
+++ b/德州AI用例/具体测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>前置条件：手牌+翻牌前-&gt;玩家无有效操作-&gt;本轮第一次操作</t>
     <rPh sb="0" eb="1">
@@ -1800,6 +1800,80 @@
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、牌局为1/2 a、b、c（AI玩家位置）、d、四个玩家，当betrate（40）&lt;50%时，最小跟注额（110）&gt;当前玩家总底池（210）x50%且最小跟注额(110)&gt;20bb，limp-call位参赛人数4人，属于MP位 a玩家进行了call最小跟注额130%，b玩家进行call了最小跟注额130%，call&gt;1 c玩家（AI玩家）自身筹码量90&lt;50bb
+本次AI玩家截止到本次操作前累筹码为10，符合betrate&lt;40%。A玩家加注20，B玩家筹码剩余90 allin 符合条件牌桌action（若allin筹码&gt;需跟住筹码的130%则为allin）</t>
+    <rPh sb="3" eb="4">
+      <t>pai'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>si'ge'wan'jia</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>le</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>le</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>zui'xiao</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>gen'zhu'e</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>wan'jia</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>jia'zhu</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>chou'ma</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ze</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1872,14 +1946,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2158,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2307,7 +2381,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B19" t="s">
@@ -2315,7 +2389,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -2326,7 +2400,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
@@ -2342,7 +2416,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B24" t="s">
@@ -2353,7 +2427,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2363,7 +2437,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B27" t="s">
@@ -2374,7 +2448,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B28" t="s">
@@ -2390,7 +2464,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B30" t="s">
@@ -2401,13 +2475,24 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>53</v>
+      <c r="A31" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2590,7 +2675,7 @@
       <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2601,7 +2686,7 @@
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2610,7 +2695,7 @@
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2619,7 +2704,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2630,7 +2715,7 @@
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2639,7 +2724,7 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2648,7 +2733,7 @@
       <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2659,7 +2744,7 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2668,7 +2753,7 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
